--- a/doc/ue_texture2d_FBulkData.xlsx
+++ b/doc/ue_texture2d_FBulkData.xlsx
@@ -1,13 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3683DF7C-9197-4531-B0E2-E3FE4546519A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FBulkData" sheetId="2" r:id="rId2"/>
+    <sheet name="LOD运行原理" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,16 +22,399 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>FBulkData</t>
+    <t>图像序列使用Mipmap的方法。该方法可以缩短图像序列的加载时间，但不会牺牲品质</t>
+  </si>
+  <si>
+    <t>例如：512x512的贴图，会自动生成256，128，64，32，16，8，4，2，1，9张mipmap图。随着摄像机的变化，自动切换，达到资源的最大优化。</t>
+  </si>
+  <si>
+    <r>
+      <t>mipmap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF121212"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>简单的说，就是一张原始贴图按照</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF121212"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF121212"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的倍数逐渐缩小，直到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF121212"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1x1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF121212"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚幻引擎在导入贴图的时候，如果贴图的尺寸是为2的N次方，那么引擎会预生成一组等比压缩的纹理，这一组纹理叫Mipmap</t>
+  </si>
+  <si>
+    <r>
+      <t>需要注意的一点是，如果纹理要生成mipmap，纹理的长宽都</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF121212"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必须是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF121212"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF121212"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF121212"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF121212"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF121212"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，也就是纹理的长宽像素，必须是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF121212"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF121212"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF121212"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF121212"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF121212"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF121212"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF121212"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF121212"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF121212"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF121212"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF121212"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF121212"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF121212"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF121212"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF121212"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>128</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF121212"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF121212"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>512</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF121212"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF121212"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF121212"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF121212"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2048</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF121212"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF121212"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4096</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF121212"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF121212"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>8192</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF121212"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF121212"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>16384.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/425649398</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,6 +428,39 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF121212"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF121212"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF121212"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF121212"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -64,8 +483,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -345,22 +765,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8524016A-D4FB-4A4E-AE60-BA223E38AFA7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE34B894-3A95-4B26-B214-381AB3E2B9F9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>